--- a/раздел5/расчет надежности.xlsx
+++ b/раздел5/расчет надежности.xlsx
@@ -11,36 +11,81 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>пайки</t>
   </si>
   <si>
-    <t>резисторы</t>
-  </si>
-  <si>
     <t>конденсаторы</t>
   </si>
   <si>
-    <t>транзисторы</t>
-  </si>
-  <si>
-    <t>ИМС</t>
-  </si>
-  <si>
     <t>кнопки</t>
+  </si>
+  <si>
+    <t>ЛИМС</t>
+  </si>
+  <si>
+    <t>АИМС</t>
+  </si>
+  <si>
+    <t>резистор МЛТ</t>
+  </si>
+  <si>
+    <t>Транзистор полевой</t>
+  </si>
+  <si>
+    <t>регситраы сдвигов</t>
+  </si>
+  <si>
+    <t>источники питания</t>
+  </si>
+  <si>
+    <t>К суммарное</t>
+  </si>
+  <si>
+    <t>общая нараб</t>
+  </si>
+  <si>
+    <t>количество</t>
+  </si>
+  <si>
+    <t>Гибридные МЛС</t>
+  </si>
+  <si>
+    <t>альфа</t>
+  </si>
+  <si>
+    <t>λсуммарное</t>
+  </si>
+  <si>
+    <t>10^-6</t>
+  </si>
+  <si>
+    <t>наработка на отказ</t>
+  </si>
+  <si>
+    <t>часов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вероятность безотказной </t>
+  </si>
+  <si>
+    <t>работы за 10000часов</t>
+  </si>
+  <si>
+    <t>Вероятность отказа</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +93,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -65,14 +142,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,49 +484,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>39.860999999999997</v>
+      </c>
+      <c r="E2">
+        <f>B2*C2*D2</f>
+        <v>95.347511999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>B3*C3*D3</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60.215000000000003</v>
+      </c>
+      <c r="E4">
+        <f>B4*C4*D4</f>
+        <v>112.96334000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E5">
+        <f>B5*C5*D5</f>
+        <v>0.124608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.2450000000000001</v>
+      </c>
+      <c r="E6">
+        <f>B6*C6*D6</f>
+        <v>1.4278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f>B7*C7*D7</f>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>B8*C8*D8</f>
+        <v>1.2469999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>B9*C9*D9</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>B10*C10*D10</f>
+        <v>3.15E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B11" s="1">
+        <v>2149</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="E11">
+        <f>B11*C11*D11</f>
+        <v>27.936999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <f>SUM(E2:E13)</f>
+        <v>242.31876</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <f>ROUND((1000000/B14),0)</f>
+        <v>4127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <f>ROUND(EXP(-B15*B14*0.000001),3)</f>
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <f>ROUND(1-B17,3)</f>
+        <v>0.63200000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/раздел5/расчет надежности.xlsx
+++ b/раздел5/расчет надежности.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>пайки</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Вероятность отказа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гамма процентная </t>
+  </si>
+  <si>
+    <t>наработка 95 %</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,11 +531,11 @@
         <v>2.3E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>39.860999999999997</v>
+        <v>10.87</v>
       </c>
       <c r="E2">
-        <f>B2*C2*D2</f>
-        <v>95.347511999999995</v>
+        <f t="shared" ref="E2:E11" si="0">B2*C2*D2</f>
+        <v>26.001039999999996</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -546,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f>B3*C3*D3</f>
+        <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
     </row>
@@ -561,11 +567,11 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>60.215000000000003</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="E4">
-        <f>B4*C4*D4</f>
-        <v>112.96334000000002</v>
+        <f t="shared" si="0"/>
+        <v>30.803920000000005</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -579,11 +585,11 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>0.94399999999999995</v>
+        <v>0.19</v>
       </c>
       <c r="E5">
-        <f>B5*C5*D5</f>
-        <v>0.124608</v>
+        <f t="shared" si="0"/>
+        <v>2.5080000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -600,7 +606,7 @@
         <v>3.2450000000000001</v>
       </c>
       <c r="E6">
-        <f>B6*C6*D6</f>
+        <f t="shared" si="0"/>
         <v>1.4278</v>
       </c>
     </row>
@@ -618,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>B7*C7*D7</f>
+        <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
     </row>
@@ -636,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <f>B8*C8*D8</f>
+        <f t="shared" si="0"/>
         <v>1.2469999999999999</v>
       </c>
     </row>
@@ -654,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <f>B9*C9*D9</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
     </row>
@@ -672,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>B10*C10*D10</f>
+        <f t="shared" si="0"/>
         <v>3.15E-2</v>
       </c>
     </row>
@@ -690,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>B11*C11*D11</f>
+        <f t="shared" si="0"/>
         <v>27.936999999999998</v>
       </c>
     </row>
@@ -700,7 +706,7 @@
       </c>
       <c r="B14" s="3">
         <f>SUM(E2:E13)</f>
-        <v>242.31876</v>
+        <v>90.713340000000002</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -712,10 +718,13 @@
       </c>
       <c r="B15" s="5">
         <f>ROUND((1000000/B14),0)</f>
-        <v>4127</v>
+        <v>11024</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -723,8 +732,8 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <f>ROUND(EXP(-B15*B14*0.000001),3)</f>
-        <v>0.36799999999999999</v>
+        <f>ROUND(EXP(-E15/B15),3)</f>
+        <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -738,7 +747,17 @@
       </c>
       <c r="B20">
         <f>ROUND(1-B17,3)</f>
-        <v>0.63200000000000001</v>
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
